--- a/docs/04_Test_Cases.xlsx
+++ b/docs/04_Test_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c83787b96312fc7/Документы/GitHub/olx-qa-lab/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{54706C11-F518-450A-B7F9-D2D74027B9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E5751FE-87B2-4442-98EC-181D87CE3582}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{54706C11-F518-450A-B7F9-D2D74027B9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11AA7E94-7130-49B9-A6EA-124E5DE0E95A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{59335B6C-7781-4EEE-85FA-E88F242DD746}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{59335B6C-7781-4EEE-85FA-E88F242DD746}"/>
   </bookViews>
   <sheets>
     <sheet name=" Реєстрація та авторизація" sheetId="1" r:id="rId1"/>
@@ -115,175 +115,175 @@
     <t>Створення нового оголошення з валідними даними</t>
   </si>
   <si>
-    <t>1. Користувач авторизований в системі&lt;br&gt;2. Користувач знаходиться на головній сторінці</t>
-  </si>
-  <si>
-    <t>1. Натиснути кнопку "Додати оголошення"&lt;br&gt;2. Вибрати категорію "Електроніка"&lt;br&gt;3. Вибрати підкатегорію "Телефони"&lt;br&gt;4. Ввести заголовок: "iPhone 13 128GB Midnight"&lt;br&gt;5. Ввести опис: "Новий, запакований. Гарантія 12 місяців."&lt;br&gt;6. Ввести ціну: 25000&lt;br&gt;7. Завантажити 3 фотографії&lt;br&gt;8. Вибрати місцезнаходження: Київ&lt;br&gt;9. Ввести контактний номер: +380951234567&lt;br&gt;10. Натиснути кнопку "Опублікувати"</t>
-  </si>
-  <si>
-    <t>1. Оголошення успішно створено&lt;br&gt;2. Користувач перенаправлений на сторінку перегляду створеного оголошення&lt;br&gt;3. Всі введені дані відображаються коректно&lt;br&gt;4. Оголошення доступне для пошуку іншим користувачам</t>
-  </si>
-  <si>
     <t>TC-LST-002</t>
   </si>
   <si>
     <t>Редагування існуючого оголошення</t>
   </si>
   <si>
-    <t>1. Користувач авторизований в системі&lt;br&gt;2. Користувач має активне оголошення</t>
-  </si>
-  <si>
-    <t>1. Перейти на сторінку "Мої оголошення"&lt;br&gt;2. Вибрати існуюче оголошення&lt;br&gt;3. Натиснути кнопку "Редагувати"&lt;br&gt;4. Змінити заголовок на "iPhone 13 128GB Midnight Blue"&lt;br&gt;5. Змінити ціну на 24000&lt;br&gt;6. Додати ще одну фотографію&lt;br&gt;7. Натиснути кнопку "Зберегти зміни"</t>
-  </si>
-  <si>
-    <t>1. Зміни успішно збережені&lt;br&gt;2. Користувач перенаправлений на сторінку перегляду оголошення&lt;br&gt;3. Нові дані відображаються коректно&lt;br&gt;4. Дата оновлення оголошення змінена на поточну</t>
-  </si>
-  <si>
     <t>TC-LST-003</t>
   </si>
   <si>
     <t>Деактивація оголошення</t>
   </si>
   <si>
-    <t>1. Перейти на сторінку "Мої оголошення"&lt;br&gt;2. Вибрати існуюче оголошення&lt;br&gt;3. Натиснути кнопку "Деактивувати"&lt;br&gt;4. Підтвердити деактивацію</t>
-  </si>
-  <si>
-    <t>1. Оголошення успішно деактивоване&lt;br&gt;2. Статус оголошення змінений на "Неактивне"&lt;br&gt;3. Оголошення не відображається в результатах пошуку&lt;br&gt;4. В списку "Мої оголошення" відображається як неактивне</t>
-  </si>
-  <si>
     <t>TC-SRCH-001</t>
   </si>
   <si>
     <t>Пошук за ключовим словом</t>
   </si>
   <si>
-    <t>1. Відкрита головна сторінка OLX&lt;br&gt;2. В системі є оголошення з ключовим словом "iPhone"</t>
-  </si>
-  <si>
-    <t>1. Ввести в поле пошуку "iPhone"&lt;br&gt;2. Натиснути кнопку "Пошук"</t>
-  </si>
-  <si>
-    <t>1. Система відображає результати пошуку&lt;br&gt;2. Результати містять оголошення з ключовим словом "iPhone" в заголовку або описі&lt;br&gt;3. Відображається кількість знайдених оголошень</t>
-  </si>
-  <si>
     <t>TC-SRCH-002</t>
   </si>
   <si>
     <t>Фільтрація результатів пошуку за ціновим діапазоном</t>
   </si>
   <si>
-    <t>1. Відкрита сторінка результатів пошуку за ключовим словом "iPhone"&lt;br&gt;2. В системі є оголошення з різними цінами</t>
-  </si>
-  <si>
-    <t>1. В блоці фільтрів ввести мінімальну ціну: 10000&lt;br&gt;2. Ввести максимальну ціну: 20000&lt;br&gt;3. Натиснути кнопку "Застосувати"</t>
-  </si>
-  <si>
-    <t>1. Система оновлює результати пошуку&lt;br&gt;2. Відображаються тільки оголошення з ціною від 10000 до 20000 грн&lt;br&gt;3. Оголошення з ціною менше 10000 або більше 20000 не відображаються</t>
-  </si>
-  <si>
     <t>TC-SRCH-003</t>
   </si>
   <si>
     <t>Фільтрація за місцезнаходженням</t>
   </si>
   <si>
-    <t>1. Відкрита сторінка результатів пошуку за ключовим словом "iPhone"&lt;br&gt;2. В системі є оголошення з різних міст</t>
-  </si>
-  <si>
-    <t>1. В блоці фільтрів вибрати місто "Львів"&lt;br&gt;2. Натиснути кнопку "Застосувати"</t>
-  </si>
-  <si>
-    <t>1. Система оновлює результати пошуку&lt;br&gt;2. Відображаються тільки оголошення з міста Львів&lt;br&gt;3. Оголошення з інших міст не відображаються</t>
-  </si>
-  <si>
     <t>TC-MSG-001</t>
   </si>
   <si>
     <t>Відправка повідомлення продавцю</t>
   </si>
   <si>
-    <t>1. Користувач авторизований в системі&lt;br&gt;2. Відкрита сторінка оголошення іншого користувача</t>
-  </si>
-  <si>
-    <t>1. Натиснути кнопку "Написати"&lt;br&gt;2. Ввести текст повідомлення: "Добрий день, чи актуальне ще ваше оголошення?"&lt;br&gt;3. Натиснути кнопку "Відправити"</t>
-  </si>
-  <si>
-    <t>1. Повідомлення успішно відправлено&lt;br&gt;2. Система відображає підтвердження відправки&lt;br&gt;3. Повідомлення додано до чату з продавцем&lt;br&gt;4. Продавець отримує сповіщення про нове повідомлення</t>
-  </si>
-  <si>
     <t>TC-MSG-002</t>
   </si>
   <si>
     <t>Перегляд історії повідомлень</t>
   </si>
   <si>
-    <t>1. Користувач авторизований в системі&lt;br&gt;2. Користувач має історію повідомлень з іншим користувачем</t>
-  </si>
-  <si>
-    <t>1. Перейти на сторінку "Повідомлення"&lt;br&gt;2. Вибрати чат з користувачем</t>
-  </si>
-  <si>
-    <t>1. Система відображає історію повідомлень&lt;br&gt;2. Повідомлення відображаються в хронологічному порядку&lt;br&gt;3. Відображаються дати відправки повідомлень&lt;br&gt;4. Повідомлення користувача і співрозмовника відображаються різними кольорами</t>
-  </si>
-  <si>
     <t>TC-MSG-003</t>
   </si>
   <si>
     <t>Відправка зображення в повідомленні</t>
   </si>
   <si>
-    <t>1. Користувач авторизований в системі&lt;br&gt;2. Відкритий чат з іншим користувачем</t>
-  </si>
-  <si>
-    <t>1. Натиснути кнопку "Прикріпити фото"&lt;br&gt;2. Вибрати зображення з пристрою&lt;br&gt;3. Ввести текст повідомлення: "Ось фото товару з іншого ракурсу"&lt;br&gt;4. Натиснути кнопку "Відправити"</t>
-  </si>
-  <si>
-    <t>1. Повідомлення з зображенням успішно відправлено&lt;br&gt;2. Зображення коректно відображається в чаті&lt;br&gt;3. Текст повідомлення відображається разом із зображенням</t>
-  </si>
-  <si>
     <t>TC-MOB-001</t>
   </si>
   <si>
     <t>Адаптивність веб-сайту на мобільних пристроях</t>
   </si>
   <si>
-    <t>1. Відкритий браузер на мобільному пристрої&lt;br&gt;2. Інтернет-з'єднання активне</t>
-  </si>
-  <si>
-    <t>1. Відкрити сайт OLX&lt;br&gt;2. Перевірити відображення головної сторінки&lt;br&gt;3. Перейти на сторінку категорій&lt;br&gt;4. Перейти на сторінку оголошення</t>
-  </si>
-  <si>
-    <t>1. Сайт коректно відображається на мобільному пристрої&lt;br&gt;2. Елементи інтерфейсу адаптовані під розмір екрану&lt;br&gt;3. Навігація зручна для мобільного використання&lt;br&gt;4. Всі функції доступні через мобільний інтерфейс</t>
-  </si>
-  <si>
     <t>TC-MOB-002</t>
   </si>
   <si>
     <t>Встановлення та запуск мобільного додатку Android</t>
   </si>
   <si>
-    <t>1. Мобільний пристрій з Android&lt;br&gt;2. Доступ до Google Play Store&lt;br&gt;3. Інтернет-з'єднання активне</t>
-  </si>
-  <si>
-    <t>1. Відкрити Google Play Store&lt;br&gt;2. Знайти додаток OLX&lt;br&gt;3. Натиснути кнопку "Встановити"&lt;br&gt;4. Після встановлення запустити додаток</t>
-  </si>
-  <si>
-    <t>1. Додаток успішно встановлено&lt;br&gt;2. Додаток запускається без помилок&lt;br&gt;3. Відображається екран привітання або головний екран додатку</t>
-  </si>
-  <si>
     <t>TC-MOB-003</t>
   </si>
   <si>
     <t>Синхронізація даних між веб-версією та мобільним додатком</t>
   </si>
   <si>
-    <t>1. Користувач авторизований на веб-сайті OLX&lt;br&gt;2. Користувач має встановлений мобільний додаток&lt;br&gt;3. Користувач створив оголошення через веб-сайт</t>
-  </si>
-  <si>
-    <t>1. Авторизуватись в мобільному додатку&lt;br&gt;2. Перейти до розділу "Мої оголошення"</t>
-  </si>
-  <si>
-    <t>1. Мобільний додаток відображає ті ж оголошення, що і веб-версія&lt;br&gt;2. Дані профілю синхронізовані&lt;br&gt;3. Повідомлення та чати доступні в мобільному додатку</t>
+    <t>1. Користувач авторизований в системі / 2. Користувач знаходиться на головній сторінці</t>
+  </si>
+  <si>
+    <t>1. Натиснути кнопку "Додати оголошення" / 2. Вибрати категорію "Електроніка" / 3. Вибрати підкатегорію "Телефони" / 4. Ввести заголовок: "iPhone 13 128GB Midnight" / 5. Ввести опис: "Новий, запакований. Гарантія 12 місяців." / 6. Ввести ціну: 25000 / 7. Завантажити 3 фотографії / 8. Вибрати місцезнаходження: Київ / 9. Ввести контактний номер: +380951234567 / 10. Натиснути кнопку "Опублікувати"</t>
+  </si>
+  <si>
+    <t>1. Оголошення успішно створено / 2. Користувач перенаправлений на сторінку перегляду створеного оголошення / 3. Всі введені дані відображаються коректно / 4. Оголошення доступне для пошуку іншим користувачам</t>
+  </si>
+  <si>
+    <t>1. Користувач авторизований в системі / 2. Користувач має активне оголошення</t>
+  </si>
+  <si>
+    <t>1. Перейти на сторінку "Мої оголошення" / 2. Вибрати існуюче оголошення / 3. Натиснути кнопку "Редагувати" / 4. Змінити заголовок на "iPhone 13 128GB Midnight Blue" / 5. Змінити ціну на 24000 / 6. Додати ще одну фотографію / 7. Натиснути кнопку "Зберегти зміни"</t>
+  </si>
+  <si>
+    <t>1. Зміни успішно збережені / 2. Користувач перенаправлений на сторінку перегляду оголошення / 3. Нові дані відображаються коректно / 4. Дата оновлення оголошення змінена на поточну</t>
+  </si>
+  <si>
+    <t>1. Перейти на сторінку "Мої оголошення" / 2. Вибрати існуюче оголошення / 3. Натиснути кнопку "Деактивувати" / 4. Підтвердити деактивацію</t>
+  </si>
+  <si>
+    <t>1. Оголошення успішно деактивоване / 2. Статус оголошення змінений на "Неактивне" / 3. Оголошення не відображається в результатах пошуку / 4. В списку "Мої оголошення" відображається як неактивне</t>
+  </si>
+  <si>
+    <t>1. Відкрита головна сторінка OLX / 2. В системі є оголошення з ключовим словом "iPhone"</t>
+  </si>
+  <si>
+    <t>1. Ввести в поле пошуку "iPhone" / 2. Натиснути кнопку "Пошук"</t>
+  </si>
+  <si>
+    <t>1. Система відображає результати пошуку / 2. Результати містять оголошення з ключовим словом "iPhone" в заголовку або описі / 3. Відображається кількість знайдених оголошень</t>
+  </si>
+  <si>
+    <t>1. Відкрита сторінка результатів пошуку за ключовим словом "iPhone" / 2. В системі є оголошення з різними цінами</t>
+  </si>
+  <si>
+    <t>1. В блоці фільтрів ввести мінімальну ціну: 10000 / 2. Ввести максимальну ціну: 20000 / 3. Натиснути кнопку "Застосувати"</t>
+  </si>
+  <si>
+    <t>1. Система оновлює результати пошуку / 2. Відображаються тільки оголошення з ціною від 10000 до 20000 грн / 3. Оголошення з ціною менше 10000 або більше 20000 не відображаються</t>
+  </si>
+  <si>
+    <t>1. Відкрита сторінка результатів пошуку за ключовим словом "iPhone" / 2. В системі є оголошення з різних міст</t>
+  </si>
+  <si>
+    <t>1. В блоці фільтрів вибрати місто "Львів" / 2. Натиснути кнопку "Застосувати"</t>
+  </si>
+  <si>
+    <t>1. Система оновлює результати пошуку / 2. Відображаються тільки оголошення з міста Львів / 3. Оголошення з інших міст не відображаються</t>
+  </si>
+  <si>
+    <t>1. Користувач авторизований в системі / 2. Відкрита сторінка оголошення іншого користувача</t>
+  </si>
+  <si>
+    <t>1. Натиснути кнопку "Написати" / 2. Ввести текст повідомлення: "Добрий день, чи актуальне ще ваше оголошення?" / 3. Натиснути кнопку "Відправити"</t>
+  </si>
+  <si>
+    <t>1. Повідомлення успішно відправлено / 2. Система відображає підтвердження відправки / 3. Повідомлення додано до чату з продавцем / 4. Продавець отримує сповіщення про нове повідомлення</t>
+  </si>
+  <si>
+    <t>1. Користувач авторизований в системі / 2. Користувач має історію повідомлень з іншим користувачем</t>
+  </si>
+  <si>
+    <t>1. Перейти на сторінку "Повідомлення" / 2. Вибрати чат з користувачем</t>
+  </si>
+  <si>
+    <t>1. Система відображає історію повідомлень / 2. Повідомлення відображаються в хронологічному порядку / 3. Відображаються дати відправки повідомлень / 4. Повідомлення користувача і співрозмовника відображаються різними кольорами</t>
+  </si>
+  <si>
+    <t>1. Користувач авторизований в системі / 2. Відкритий чат з іншим користувачем</t>
+  </si>
+  <si>
+    <t>1. Натиснути кнопку "Прикріпити фото" / 2. Вибрати зображення з пристрою / 3. Ввести текст повідомлення: "Ось фото товару з іншого ракурсу" / 4. Натиснути кнопку "Відправити"</t>
+  </si>
+  <si>
+    <t>1. Повідомлення з зображенням успішно відправлено / 2. Зображення коректно відображається в чаті / 3. Текст повідомлення відображається разом із зображенням</t>
+  </si>
+  <si>
+    <t>1. Відкритий браузер на мобільному пристрої / 2. Інтернет-з'єднання активне</t>
+  </si>
+  <si>
+    <t>1. Відкрити сайт OLX / 2. Перевірити відображення головної сторінки / 3. Перейти на сторінку категорій / 4. Перейти на сторінку оголошення</t>
+  </si>
+  <si>
+    <t>1. Сайт коректно відображається на мобільному пристрої / 2. Елементи інтерфейсу адаптовані під розмір екрану / 3. Навігація зручна для мобільного використання / 4. Всі функції доступні через мобільний інтерфейс</t>
+  </si>
+  <si>
+    <t>1. Мобільний пристрій з Android / 2. Доступ до Google Play Store / 3. Інтернет-з'єднання активне</t>
+  </si>
+  <si>
+    <t>1. Відкрити Google Play Store / 2. Знайти додаток OLX / 3. Натиснути кнопку "Встановити" / 4. Після встановлення запустити додаток</t>
+  </si>
+  <si>
+    <t>1. Додаток успішно встановлено / 2. Додаток запускається без помилок / 3. Відображається екран привітання або головний екран додатку</t>
+  </si>
+  <si>
+    <t>1. Користувач авторизований на веб-сайті OLX / 2. Користувач має встановлений мобільний додаток / 3. Користувач створив оголошення через веб-сайт</t>
+  </si>
+  <si>
+    <t>1. Авторизуватись в мобільному додатку / 2. Перейти до розділу "Мої оголошення"</t>
+  </si>
+  <si>
+    <t>1. Мобільний додаток відображає ті ж оголошення, що і веб-версія / 2. Дані профілю синхронізовані / 3. Повідомлення та чати доступні в мобільному додатку</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -386,8 +386,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -882,60 +881,60 @@
         <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -986,66 +985,66 @@
     </row>
     <row r="2" spans="1:7" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="A4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC38E5D1-9E1F-43C9-974F-3F4218E866FC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
@@ -1096,66 +1095,66 @@
     </row>
     <row r="2" spans="1:7" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1166,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C1F761-01D4-4178-B1B7-2CD4E6AC7B90}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1206,48 +1205,48 @@
     </row>
     <row r="2" spans="1:7" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>82</v>
@@ -1261,11 +1260,11 @@
       <c r="F4" s="4"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+    <row r="5" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
